--- a/results/3_tomfull_condition1_2020-09-02_15h40.15.337_results.xlsx
+++ b/results/3_tomfull_condition1_2020-09-02_15h40.15.337_results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AABA5-FA38-44CD-9145-D03A34D80F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Train 1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="PostTest" sheetId="5" r:id="rId5"/>
     <sheet name="Overview" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="339">
   <si>
     <t>Audio</t>
   </si>
@@ -42,6 +36,9 @@
     <t>Reaction Time</t>
   </si>
   <si>
+    <t>True Key</t>
+  </si>
+  <si>
     <t>01_kitipi1.wav</t>
   </si>
   <si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
   <si>
     <t>Images</t>
@@ -1038,8 +1041,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,14 +1105,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1156,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,27 +1183,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,24 +1217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1433,14 +1392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,95 +1415,113 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.68271499999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.682715</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4.758025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.27509</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4.7580249999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1.2750900000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1552,50 +1529,59 @@
       <c r="E7">
         <v>0.10904</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.6700200000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.67002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.79916500000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.799165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1603,16 +1589,19 @@
       <c r="E10">
         <v>1.809015</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1620,84 +1609,99 @@
       <c r="E11">
         <v>1.02854</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.0065900000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.00659</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2.04791</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1.39926</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.63378</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2.0479099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1.3992599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.63378000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1705,169 +1709,199 @@
       <c r="E16">
         <v>1.58711</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.30958</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.30958000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.79651499999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.796515</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1.4974149999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.497415</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>5.2068849999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.206885</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.5947149999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.594715</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1.1320349999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.132035</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3.0268199999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.02682</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>2.1125799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.11258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2.7653349999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.765335</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1875,16 +1909,19 @@
       <c r="E26">
         <v>1.063015</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1892,39 +1929,48 @@
       <c r="E27">
         <v>1.70831</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.315665</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0.31566499999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.24213999999999999</v>
+        <v>0.24214</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1933,25 +1979,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1959,16 +2005,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1979,16 +2028,19 @@
       <c r="F2">
         <v>1.215525</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1997,18 +2049,21 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.32200499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.322005</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2017,18 +2072,21 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.73483999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.7348399999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2037,18 +2095,21 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.1663650000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.166365</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2057,18 +2118,21 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.7165349999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.716535</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2077,18 +2141,21 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>8.9339899999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.93399</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2097,18 +2164,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.3319900000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.33199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2117,18 +2187,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.5225749999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.522575</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2139,16 +2212,19 @@
       <c r="F10">
         <v>2.968</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2157,18 +2233,21 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.52632999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.52633</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2177,18 +2256,21 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.26968500000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.269685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2197,18 +2279,21 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.27997499999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.279975</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2217,18 +2302,21 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.30415500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.304155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2237,18 +2325,21 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2.8397000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.8397</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2257,18 +2348,21 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.79524499999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.795245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2277,18 +2371,21 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2.5894699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.58947</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2299,16 +2396,19 @@
       <c r="F18">
         <v>0.464505</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2317,18 +2417,21 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>5.0840000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.05084</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2337,18 +2440,21 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.41622500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.416225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2357,18 +2463,21 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.13131000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.13131</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2377,18 +2486,21 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.12743499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.127435</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2399,37 +2511,43 @@
       <c r="F23">
         <v>1.25562</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2.6064</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2.6063999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
       <c r="D25">
         <v>2</v>
       </c>
@@ -2437,18 +2555,21 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>5.6876949999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.687695</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2459,16 +2580,19 @@
       <c r="F26">
         <v>3.390215</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2477,35 +2601,41 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4.2726550000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.272655</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2516,16 +2646,19 @@
       <c r="F29">
         <v>1.50038</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2534,18 +2667,21 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3.2672300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.26723</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2554,18 +2690,21 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.94964999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.94965</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2574,18 +2713,21 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.85273500000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.852735</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2594,18 +2736,21 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.79055500000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.790555</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2616,16 +2761,19 @@
       <c r="F34">
         <v>2.514615</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2634,18 +2782,21 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.31273499999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.312735</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2654,18 +2805,21 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0.37595000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.37595</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2674,18 +2828,21 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2.6402600000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.64026</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2696,16 +2853,19 @@
       <c r="F38">
         <v>1.498535</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2714,18 +2874,21 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0.53148499999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.531485</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2734,18 +2897,21 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1.5158199999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.51582</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2754,18 +2920,21 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>2.128E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.02128</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2776,16 +2945,19 @@
       <c r="F42">
         <v>0.11089</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2794,18 +2966,21 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1.6114200000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.61142</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2814,18 +2989,21 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.1470400000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.14704</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2834,18 +3012,21 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.075E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.001075</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2856,16 +3037,19 @@
       <c r="F46">
         <v>0.11995</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2876,16 +3060,19 @@
       <c r="F47">
         <v>2.59768</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2894,18 +3081,21 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0.12900500000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.129005</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2916,16 +3106,19 @@
       <c r="F49">
         <v>0.8202299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2934,18 +3127,21 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1.6047499999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.60475</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2956,16 +3152,19 @@
       <c r="F51">
         <v>1.479495</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2976,16 +3175,19 @@
       <c r="F52">
         <v>2.73047</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2994,18 +3196,21 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0.29219000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.29219</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3014,18 +3219,21 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2.5273949999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.527395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3034,18 +3242,21 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>3.3469099999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.34691</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3056,16 +3267,19 @@
       <c r="F56">
         <v>1.214305</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3074,7 +3288,10 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2.9632649999999998</v>
+        <v>2.963265</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3083,25 +3300,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3109,16 +3326,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3127,18 +3347,21 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>8.7663949999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.766394999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3149,16 +3372,19 @@
       <c r="F3">
         <v>1.65767</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3167,18 +3393,21 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.16739999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1674</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3189,16 +3418,19 @@
       <c r="F5">
         <v>1.03311</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3209,16 +3441,19 @@
       <c r="F6">
         <v>1.037795</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3227,18 +3462,21 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1.1216699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.12167</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3247,18 +3485,21 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.31518499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.315185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3267,35 +3508,41 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.38091999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.38092</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3304,18 +3551,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8.0351949999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.035195</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3324,18 +3574,21 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.1833149999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.183315</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3344,18 +3597,21 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.5885E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.015885</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3364,18 +3620,21 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>9.5930000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.09593</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3384,18 +3643,21 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.8595600000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.85956</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3404,18 +3666,21 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>4.4795000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.044795</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3424,18 +3689,21 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.25343500000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.253435</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3444,18 +3712,21 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.88575499999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.885755</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3464,18 +3735,21 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.34805999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.34806</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3484,18 +3758,21 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4.3450000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.04345</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3504,18 +3781,21 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.61843999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.61844</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3524,18 +3804,21 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.46374500000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.463745</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3544,18 +3827,21 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1.1465749999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.146575</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3566,16 +3852,19 @@
       <c r="F24">
         <v>0.21153</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3586,16 +3875,19 @@
       <c r="F25">
         <v>1.24373</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3604,18 +3896,21 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>7.0474999999999996E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.070475</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3624,18 +3919,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.17055999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.17056</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3644,18 +3942,21 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.42360999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.42361</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3664,18 +3965,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>5.6888399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.68884</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3684,18 +3988,21 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.11978999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.11979</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3704,18 +4011,21 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.31566499999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.315665</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3726,16 +4036,19 @@
       <c r="F32">
         <v>5.688485</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3744,18 +4057,21 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.31718499999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.317185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3764,18 +4080,21 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0.52421499999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.524215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3784,18 +4103,21 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.73167499999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.731675</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3804,18 +4126,21 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0.15543499999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.155435</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3824,18 +4149,21 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.10126499999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.101265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3844,18 +4172,21 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2.7517049999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.751705</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3864,18 +4195,21 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0.40293000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.40293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3884,18 +4218,21 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0.36087000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.36087</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3904,18 +4241,21 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>2.0921099999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.09211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3924,18 +4264,21 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.3907499999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.39075</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3946,16 +4289,19 @@
       <c r="F43">
         <v>1.923835</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3964,18 +4310,21 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.79297499999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.792975</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3984,18 +4333,21 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.29353499999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.293535</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -4004,18 +4356,21 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2.4463849999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.446385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4024,18 +4379,21 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.49975000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.49975</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4044,18 +4402,21 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>2.2781799999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.27818</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4066,16 +4427,19 @@
       <c r="F49">
         <v>0.121185</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4084,18 +4448,21 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.36641499999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.366415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -4106,16 +4473,19 @@
       <c r="F51">
         <v>0.526115</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4124,18 +4494,21 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0.15368000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.15368</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4144,18 +4517,21 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.9399200000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.93992</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4164,18 +4540,21 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.46106000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.46106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4184,7 +4563,10 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0.77268999999999999</v>
+        <v>0.77269</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4193,25 +4575,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4219,16 +4601,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4237,18 +4622,21 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3.0030000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.03003</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4257,18 +4645,21 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1.3055699999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.30557</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4277,18 +4668,21 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.27173000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.27173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4299,16 +4693,19 @@
       <c r="F5">
         <v>0.698075</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4317,18 +4714,21 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.25104500000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.251045</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4337,18 +4737,21 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1.145E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.001145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4357,18 +4760,21 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.6563699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.65637</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4377,18 +4783,21 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>6.3060000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.06306</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4397,18 +4806,21 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.1436999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.1437</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4417,18 +4829,21 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2.2163650000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.216365</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4437,18 +4852,21 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.38619500000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.386195</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4457,18 +4875,21 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.96767000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.96767</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4477,18 +4898,21 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>8.5150000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.08515</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -4499,16 +4923,19 @@
       <c r="F15">
         <v>0.388625</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -4519,16 +4946,19 @@
       <c r="F16">
         <v>0.31161</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4537,18 +4967,21 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>9.7604999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.097605</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4557,18 +4990,21 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1.2220850000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.222085</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4577,18 +5013,21 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.46989999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4699</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4597,18 +5036,21 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.0120000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.01012</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4617,18 +5059,21 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.30802000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.30802</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4637,18 +5082,21 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.31612499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.316125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4659,16 +5107,19 @@
       <c r="F23">
         <v>0.120965</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4677,18 +5128,21 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>3.841E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.03841</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4697,18 +5151,21 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.41882999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.41883</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4719,16 +5176,19 @@
       <c r="F26">
         <v>0.23068</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4737,35 +5197,41 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.17590500000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.175905</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4774,18 +5240,21 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>2.6713149999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.671315</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4796,16 +5265,19 @@
       <c r="F30">
         <v>0.33315</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4814,18 +5286,21 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.14189499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.141895</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4834,18 +5309,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9.4750000000000008E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.009475000000000001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4854,119 +5332,137 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>4.9399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.00494</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.25917</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.402345</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.35188</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.09018999999999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.573145</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>152</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>260</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.25917000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.40234500000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.35188000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>9.0189999999999992E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.57314500000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>257</v>
-      </c>
       <c r="D39">
         <v>2</v>
       </c>
@@ -4974,18 +5470,21 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>7.1304999999999993E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.07130499999999999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4996,16 +5495,19 @@
       <c r="F40">
         <v>1.937295</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5016,16 +5518,19 @@
       <c r="F41">
         <v>0.335005</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5034,18 +5539,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2.6669749999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.666975</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5054,18 +5562,21 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.76928999999999992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.7692899999999999</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5074,18 +5585,21 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.1024400000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.10244</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5096,16 +5610,19 @@
       <c r="F45">
         <v>0.720105</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5116,16 +5633,19 @@
       <c r="F46">
         <v>2.105645</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -5134,18 +5654,21 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.22884499999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.228845</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5154,18 +5677,21 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0.84711499999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.847115</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -5176,16 +5702,19 @@
       <c r="F49">
         <v>0.123695</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5194,18 +5723,21 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.54001499999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.5400149999999999</v>
+      </c>
+      <c r="G50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -5214,18 +5746,21 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>9.6450000000000008E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.009645000000000001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -5234,18 +5769,21 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0.15529999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1553</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5254,18 +5792,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.43705500000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.437055</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5274,18 +5815,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>3.1170200000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.11702</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -5294,7 +5838,10 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0.33475500000000002</v>
+        <v>0.334755</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5303,25 +5850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5329,156 +5876,180 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.36021</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.073935</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.09268</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.038785</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.02796</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.62878</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
         <v>314</v>
       </c>
-      <c r="D2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.36020999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7.3935000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>9.2679999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3.8785E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2.7959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.62878000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" t="s">
-        <v>311</v>
-      </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -5486,39 +6057,45 @@
       <c r="F9">
         <v>0.203155</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.133165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
         <v>321</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.13316500000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" t="s">
-        <v>318</v>
-      </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -5526,45 +6103,54 @@
       <c r="F11">
         <v>0.146645</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.21468499999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.214685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.38312499999999999</v>
+        <v>0.383125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5573,33 +6159,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -5611,12 +6197,12 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -5628,12 +6214,12 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B4">
         <v>49</v>
@@ -5645,12 +6231,12 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B5">
         <v>47</v>
@@ -5662,12 +6248,12 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -5679,7 +6265,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
